--- a/data/trans_camb/P9_2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P9_2-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,98</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>-0,36</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 17,63</t>
+          <t>-13,19; 19,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 13,04</t>
+          <t>-16,06; 10,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 11,79</t>
+          <t>-10,16; 10,14</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>-6,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>-0,73%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,37; 45,65</t>
+          <t>-23,6; 50,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 37,65</t>
+          <t>-28,33; 25,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 31,46</t>
+          <t>-18,86; 22,79</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>-0,22</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 8,53</t>
+          <t>-9,16; 8,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 7,94</t>
+          <t>-7,02; 7,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 6,96</t>
+          <t>-5,79; 5,35</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>-0,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>-0,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>-0,28%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 11,37</t>
+          <t>-11,14; 11,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 11,53</t>
+          <t>-8,86; 10,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 9,49</t>
+          <t>-7,22; 7,19</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-1,65</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 3,77</t>
+          <t>-8,95; 0,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 2,93</t>
+          <t>-2,98; 2,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 2,31</t>
+          <t>-5,06; 0,51</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,75%</t>
+          <t>-2,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>-0,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,06%</t>
+          <t>-1,69%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 4,01</t>
+          <t>-9,01; 0,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 3,12</t>
+          <t>-3,05; 2,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 2,44</t>
+          <t>-5,13; 0,52</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>2,92</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 6,62</t>
+          <t>-1,98; 9,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 6,77</t>
+          <t>-3,09; 7,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,2; 5,81</t>
+          <t>-1,0; 7,31</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>4,23%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 8,94</t>
+          <t>-2,65; 12,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 9,92</t>
+          <t>-4,62; 12,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,28; 8,03</t>
+          <t>-1,43; 10,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2,58</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,63</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,17; 6,82</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 5,91</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 5,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>3,41%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>3,72%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>3,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-1,53; 9,09</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 8,53</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-0,08; 7,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P9_2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P9_2-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,95</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,05</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,36</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.280252011418733</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.668084748463523</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.03196903222564274</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-13,19; 19,79</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-16,06; 10,25</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-10,16; 10,14</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-13.13766977110856</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-15.2097518462707</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-10.0130276022952</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>6,02%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-6,13%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,73%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>19.18103430915509</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.59898056942238</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.46419041316121</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-23,6; 50,16</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-28,33; 25,16</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-18,86; 22,79</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.06687069482813493</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.05358453396663618</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.0006464988495023225</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,46</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,03</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,22</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.2255564543402995</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.2720011231121617</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1800785161382986</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,16; 8,75</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,02; 7,17</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,79; 5,35</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.4942968597625452</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.2506726465439265</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.2430650205597883</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,59%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,04%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,28%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.6603792439339062</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.001788264389558</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.8605767224924676</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-11,14; 11,88</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-8,86; 10,02</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-7,22; 7,19</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.760339867388382</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.762852803612583</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.572381506077142</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-2,82</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,56</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,65</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.812616560316425</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.091588757664232</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.347275048397659</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-8,95; 0,61</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,98; 2,02</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-5,06; 0,51</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.008439628137297449</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.01341091259168893</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.01126556400584583</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-2,88%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,57%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-1,69%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.09445806965787339</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.07353426100400967</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.05700659867793213</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-9,01; 0,63</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-3,05; 2,07</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-5,13; 0,52</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.1387842848151718</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.1152847376927287</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.08719044362659142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>3,62</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,09</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,92</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-2.510560147715857</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.4335174210571724</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-1.450582267747191</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-1,98; 9,16</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-3,09; 7,5</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-1,0; 7,31</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-8.232260070963585</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-2.700320592065724</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-4.58917723409684</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>4,94%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>3,21%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>4,23%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>0.8446322077609272</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>2.091450714677473</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.6579317124206081</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-2,65; 12,92</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-4,62; 12,06</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-1,43; 10,88</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.02566559400534832</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.004423169540611191</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.01481368686685414</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>2,58</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>2,63</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>2,61</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.08354467890892382</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.02708362136768139</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.04687181238105161</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-1,17; 6,82</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-0,74; 5,91</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-0,06; 5,15</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.008636602796906411</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.02179381977963525</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.006361594278241577</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>3,41%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>3,72%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>3,56%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.5682157216283179</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.6540905395478913</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.06006775360390959</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-1,53; 9,09</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-1,04; 8,53</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-0,08; 7,17</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-4.854975445813114</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.838174284310055</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-3.505854419688122</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>5.790770194512779</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>3.94453715939913</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>3.37973497973937</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.00710471673204247</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.008322292304225197</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.0007580153603763668</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.05751726250144845</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.06107589992405702</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.04347839352302216</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.07671550450290118</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.05144125243432094</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.04334487387102618</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
